--- a/test_data/test_2.xlsx
+++ b/test_data/test_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4449E3C0-FD9D-A648-81C4-573AB92979CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D465026D-60B3-B049-B25F-C3EBEBD5BD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51580" yWindow="6560" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="6120" yWindow="1680" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="262">
   <si>
     <t>Epoch</t>
   </si>
@@ -2541,7 +2541,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2703,16 +2703,14 @@
       <c r="C7" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>24</v>
       </c>

--- a/test_data/test_2.xlsx
+++ b/test_data/test_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D465026D-60B3-B049-B25F-C3EBEBD5BD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F655E2E2-ED1D-2648-BC3C-A8521E33C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="1680" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="2" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="264">
   <si>
     <t>Epoch</t>
   </si>
@@ -834,6 +834,12 @@
   </si>
   <si>
     <t>The main design for the study</t>
+  </si>
+  <si>
+    <t>SDR Prev Next</t>
+  </si>
+  <si>
+    <t>SDR</t>
   </si>
 </sst>
 </file>
@@ -973,10 +979,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1918,14 +1924,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1943,6 +1950,14 @@
       </c>
       <c r="B2" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2073,34 +2088,34 @@
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
@@ -2222,16 +2237,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2537,7 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE8670E-14F5-DF47-B190-1E715EB319D4}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>

--- a/test_data/test_2.xlsx
+++ b/test_data/test_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F655E2E2-ED1D-2648-BC3C-A8521E33C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F22D0-145C-6346-BB8B-C716592ACCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="2" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="42140" yWindow="2920" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="studyDesignEncounters" sheetId="14" r:id="rId11"/>
     <sheet name="studyDesignElements" sheetId="15" r:id="rId12"/>
     <sheet name="configuration" sheetId="10" r:id="rId13"/>
+    <sheet name="studyDesignArms" sheetId="16" r:id="rId14"/>
+    <sheet name="studyDesignEpochs" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="285">
   <si>
     <t>Epoch</t>
   </si>
@@ -840,6 +842,69 @@
   </si>
   <si>
     <t>SDR</t>
+  </si>
+  <si>
+    <t>studyArmName</t>
+  </si>
+  <si>
+    <t>studyArmDescription</t>
+  </si>
+  <si>
+    <t>studyArmType</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginDescription</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginType</t>
+  </si>
+  <si>
+    <t>Active Substance</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>Data collected from subjects</t>
+  </si>
+  <si>
+    <t>Data Generated Within Study</t>
+  </si>
+  <si>
+    <t>Placebo Comparator Arm</t>
+  </si>
+  <si>
+    <t>studyEpochName</t>
+  </si>
+  <si>
+    <t>studyEpochDescription</t>
+  </si>
+  <si>
+    <t>studyEpochType</t>
+  </si>
+  <si>
+    <t>Screening Epoch</t>
+  </si>
+  <si>
+    <t>SCREENING</t>
+  </si>
+  <si>
+    <t>Baseline Epoch</t>
+  </si>
+  <si>
+    <t>BASELINE</t>
+  </si>
+  <si>
+    <t>Treatment Epoch</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>Follow-up Epoch</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP</t>
   </si>
 </sst>
 </file>
@@ -979,10 +1044,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1926,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -1958,6 +2023,157 @@
       </c>
       <c r="B3" t="s">
         <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B34BBC-1C92-F941-8CCB-BF4602F1E718}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56EF31C-71FA-AF4E-B1A0-6E3C3B52F93B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2088,34 +2304,34 @@
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
@@ -2237,16 +2453,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
